--- a/biology/Botanique/Square_de_la_Salamandre/Square_de_la_Salamandre.xlsx
+++ b/biology/Botanique/Square_de_la_Salamandre/Square_de_la_Salamandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de la Salamandre est un square du 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé à la jonction des rues Saint-Blaise, Courat, Paul-Jean-Toulet et Roger-Bissière.
 Ce site est desservi par la ligne 9 à la station de métro Maraîchers.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La configuration de la promenade du jardin public situé au centre de la place évoque celle de la salamandre.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La place est créée dans le cadre de l'aménagement de la ZAC Saint-Blaise et formée d'une partie d'une place provisoirement dénommée « voie DD/20 » et de la « voie DH/20 ». Elle prend sa dénomination actuelle, portant sur la voirie et sur le jardin public situé au centre, par un arrêté municipal du 21 décembre 1987.
 Le jardin, qui s'étend sur 13 274 m2, est créé en 1988 par l'architecte Pierre Colboc.
